--- a/CASUAL/LA ONT/ROLLE, MICHELLYN GOLFO.xlsx
+++ b/CASUAL/LA ONT/ROLLE, MICHELLYN GOLFO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>UT(0-0-21)</t>
+  </si>
+  <si>
+    <t>UT(0-0-59)</t>
   </si>
 </sst>
 </file>
@@ -928,7 +931,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,7 +974,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1035,7 +1038,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,7 +1098,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1164,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,7 +1227,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1325,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1384,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1449,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1492,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1564,7 +1567,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1753,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1816,7 +1819,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1877,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1943,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1999,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2074,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2117,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2183,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2239,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,9 +2685,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,7 +2852,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>16.706</v>
+        <v>16.582999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2976,11 +2979,15 @@
       <c r="A15" s="40">
         <v>44682</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C15" s="13">
         <v>1.25</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="39">
+        <v>0.12300000000000001</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
@@ -5340,11 +5347,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>4.4000000000000004E-2</v>
+        <v>0.12300000000000001</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/ROLLE, MICHELLYN GOLFO.xlsx
+++ b/CASUAL/LA ONT/ROLLE, MICHELLYN GOLFO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>UT(0-0-59)</t>
+  </si>
+  <si>
+    <t>UT(0-1-14)</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +2693,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2852,7 +2858,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>16.582999999999998</v>
+        <v>16.420999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3145,11 +3151,15 @@
       <c r="A22" s="40">
         <v>44866</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C22" s="13">
         <v>1.25</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
@@ -3165,11 +3175,15 @@
       <c r="A23" s="40">
         <v>44896</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C23" s="13">
         <v>1.25</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="39">
+        <v>0.15400000000000003</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13">
@@ -5347,11 +5361,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.12300000000000001</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/ROLLE, MICHELLYN GOLFO.xlsx
+++ b/CASUAL/LA ONT/ROLLE, MICHELLYN GOLFO.xlsx
@@ -937,7 +937,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,7 +980,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1044,7 +1044,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1104,7 +1104,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,7 +1170,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1233,7 +1233,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1390,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,7 +1498,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1573,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1759,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1825,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1883,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1949,7 +1949,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +2005,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2080,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2123,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2189,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2245,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,12 +2688,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:M134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,7 +2711,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2754,7 +2754,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2784,7 +2784,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2797,7 +2797,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2814,7 +2814,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2858,7 +2858,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>16.420999999999999</v>
+        <v>17.670999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2868,12 +2868,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2895,7 +2896,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44562</v>
       </c>
@@ -2915,7 +2916,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44593</v>
       </c>
@@ -2935,7 +2936,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44621</v>
       </c>
@@ -2955,7 +2956,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44652</v>
       </c>
@@ -2981,7 +2982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44682</v>
       </c>
@@ -3005,7 +3006,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>44713</v>
       </c>
@@ -3536,13 +3537,15 @@
         <v>45291</v>
       </c>
       <c r="B39" s="20"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
